--- a/QRE/20 01 2022 18 30 no latency/26 01 2022 13 80.xlsx
+++ b/QRE/20 01 2022 18 30 no latency/26 01 2022 13 80.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester7\spinBitProject\LCCN-QUIC-Spin-Bit\QRE\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technion\Semester7\CommunicationProject\LCCN-QUIC-Spin-Bit\QRE\20 01 2022 18 30 no latency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D2B07-A04B-4125-B629-0D02594FF33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE78ED8-418C-463B-9C41-446DCE36A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{75145161-D8D9-436E-8E60-5C4F8D39BBF0}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>QRE</t>
   </si>
@@ -55,9 +53,6 @@
     <t>wireshark edges</t>
   </si>
   <si>
-    <t>wireshark start time</t>
-  </si>
-  <si>
     <t>qlog</t>
   </si>
   <si>
@@ -65,6 +60,42 @@
   </si>
   <si>
     <t>sample#</t>
+  </si>
+  <si>
+    <t>Wireshark</t>
+  </si>
+  <si>
+    <t>timestamps</t>
+  </si>
+  <si>
+    <t>server qlog</t>
+  </si>
+  <si>
+    <t>adjust to qlog</t>
+  </si>
+  <si>
+    <t>Wireshark S2C</t>
+  </si>
+  <si>
+    <t>Wireshark initial</t>
+  </si>
+  <si>
+    <t>qlog initial</t>
+  </si>
+  <si>
+    <t>Table for Presentation!</t>
+  </si>
+  <si>
+    <t>client qlog</t>
+  </si>
+  <si>
+    <t>QRE C2S</t>
+  </si>
+  <si>
+    <t>QRE S2C</t>
+  </si>
+  <si>
+    <t>Wireshark C2S</t>
   </si>
 </sst>
 </file>
@@ -80,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,11 +193,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>server</a:t>
+              <a:t>Server</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> to client RTT</a:t>
+              <a:t> to Client RTT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -189,7 +227,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -209,108 +247,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>QRE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>26.853000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.216999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.431000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.844999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.754</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.173</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25DA-469B-81CA-5BA7D09B2A27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wireshark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -341,42 +277,39 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$E$25:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.906999999999812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>71.124000000000407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>87.554999999999382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>110.39999999999961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>126.15399999999899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>137.3270000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:f>Sheet1!$B$25:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27.131</c:v>
+                  <c:v>26.853000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20.216999999999999</c:v>
@@ -392,6 +325,97 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25DA-469B-81CA-5BA7D09B2A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wireshark</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50.906999999999812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.124000000000407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.554999999999382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.39999999999961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.15399999999899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137.3270000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.853000000000904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.217000000000596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.430999999998974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.845000000000226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.75399999999938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.17300000000121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,15 +431,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>qlog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>qlog</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -443,57 +459,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:f>Sheet1!$H$25:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19.329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>33.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>54.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>70.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>93.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>104.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>120.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:f>Sheet1!$G$25:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>12.712999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>26.202999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>11.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>10.584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>19.353000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>11.433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,6 +562,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time since connection initiated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -571,7 +656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459979855"/>
@@ -599,6 +684,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -633,7 +773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1459984015"/>
@@ -675,7 +815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -705,7 +845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -751,11 +891,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>client</a:t>
+              <a:t>Client</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> to server RTT</a:t>
+              <a:t> to Server RTT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -785,7 +925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -799,15 +939,98 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>QRE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$29:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>QRE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>60.95600000000023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.494999999998868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.094999999999814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.77499999999962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.5750000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.41099999999895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$29:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E4F-40E3-A826-E718DD2D3F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wireshark</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -835,153 +1058,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:f>Sheet2!$E$29:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60.95600000000023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>76.494999999998868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>92.094999999999814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>110.77499999999962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>126.5750000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>138.41099999999895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$8</c:f>
+              <c:f>Sheet2!$C$29:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.393999999999998</c:v>
+                  <c:v>22.394000000000247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.539</c:v>
+                  <c:v>15.538999999998637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.6</c:v>
+                  <c:v>15.600000000000946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.68</c:v>
+                  <c:v>18.679999999999808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.8</c:v>
+                  <c:v>15.80000000000048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.836</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E4F-40E3-A826-E718DD2D3F0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wireshark</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$3:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$3:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>22.394000000000027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.53899999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.600000000000058</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.94499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.534999999999965</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.83600000000007</c:v>
+                  <c:v>11.835999999998847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,15 +1121,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>qlog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>qlog</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1033,54 +1149,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:f>Sheet2!$H$29:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>53.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>56.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$8</c:f>
+              <c:f>Sheet2!$G$29:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,6 +1222,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time since connection initiated (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1158,7 +1311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1372672895"/>
@@ -1186,6 +1339,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1220,7 +1428,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-IL"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1372684127"/>
@@ -1262,7 +1470,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-IL"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1299,7 +1507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-IL"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2467,16 +2675,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395152</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90352</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2801,245 +3009,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29D4347-AF00-40E4-AFA4-5D0671446D18}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>26.853000000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>27.131</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>20.216999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>20.216999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>16.431000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>16.431000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>22.844999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>22.844999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>15.754</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>15.754</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>11.173</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>11.173</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
         <v>9.6890000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>9.7161500000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J10">
-        <v>9.7363700000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11">
-        <v>9.7528000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>9.7756460000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>9.6890000000000001</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>51.868236000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>-(C13-C14)*1000</f>
         <v>27.13099999999713</v>
       </c>
-      <c r="J13">
-        <v>9.7913999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>9.7161500000000007</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>51.895367</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f>(C15-C14) *1000</f>
         <v>20.217000000002372</v>
       </c>
-      <c r="J14">
-        <v>9.8025000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
         <v>9.7363700000000009</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>51.915584000000003</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" ref="D15:D18" si="0">(C16-C15) *1000</f>
         <v>16.430999999997198</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
         <v>9.7528000000000006</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>51.932015</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>22.844999999996674</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
         <v>9.7756460000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>51.954859999999996</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>15.754000000001156</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
         <v>9.7913999999999994</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>51.970613999999998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>11.172999999999433</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
         <v>9.8025000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>51.981786999999997</v>
       </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>26.853000000000002</v>
+      </c>
+      <c r="C25">
+        <f>(A38-A37)*1000</f>
+        <v>26.853000000000904</v>
+      </c>
+      <c r="D25">
+        <v>9.7161530000000003</v>
+      </c>
+      <c r="E25">
+        <f>(D25-C37)*1000+E37</f>
+        <v>50.906999999999812</v>
+      </c>
+      <c r="G25">
+        <v>12.712999999999999</v>
+      </c>
+      <c r="H25">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>20.216999999999999</v>
+      </c>
+      <c r="C26">
+        <f>(A39-A38)*1000</f>
+        <v>20.217000000000596</v>
+      </c>
+      <c r="D26">
+        <v>9.7363700000000009</v>
+      </c>
+      <c r="E26">
+        <f>(D26-C37)*1000+E37</f>
+        <v>71.124000000000407</v>
+      </c>
+      <c r="G26">
+        <v>26.202999999999999</v>
+      </c>
+      <c r="H26">
+        <v>33.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>16.431000000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C30" si="1">(A40-A39)*1000</f>
+        <v>16.430999999998974</v>
+      </c>
+      <c r="D27">
+        <v>9.7528009999999998</v>
+      </c>
+      <c r="E27">
+        <f>(D27-C37)*1000+E37</f>
+        <v>87.554999999999382</v>
+      </c>
+      <c r="G27">
+        <v>11.771000000000001</v>
+      </c>
+      <c r="H27">
+        <v>54.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>22.844999999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>22.845000000000226</v>
+      </c>
+      <c r="D28">
+        <v>9.7756460000000001</v>
+      </c>
+      <c r="E28">
+        <f>(D28-C37)*1000+E37</f>
+        <v>110.39999999999961</v>
+      </c>
+      <c r="G28">
+        <v>10.584</v>
+      </c>
+      <c r="H28">
+        <v>70.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>15.754</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>15.75399999999938</v>
+      </c>
+      <c r="D29">
+        <v>9.7913999999999994</v>
+      </c>
+      <c r="E29">
+        <f>(D29-C37)*1000+E37</f>
+        <v>126.15399999999899</v>
+      </c>
+      <c r="G29">
+        <v>19.353000000000002</v>
+      </c>
+      <c r="H29">
+        <v>93.32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>11.173</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>11.17300000000121</v>
+      </c>
+      <c r="D30">
+        <v>9.8025730000000006</v>
+      </c>
+      <c r="E30">
+        <f>(D30-C37)*1000+E37</f>
+        <v>137.3270000000002</v>
+      </c>
+      <c r="G30">
+        <v>11.433999999999999</v>
+      </c>
+      <c r="H30">
+        <v>104.94</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>14.97</v>
+      </c>
+      <c r="H31">
+        <v>120.18</v>
+      </c>
+      <c r="L31">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="O31">
+        <v>12.712999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>12.414</v>
+      </c>
+      <c r="H32">
+        <v>312.87</v>
+      </c>
+      <c r="L32">
+        <v>33.49</v>
+      </c>
+      <c r="O32">
+        <v>26.202999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>50.906999999999812</v>
+      </c>
+      <c r="M33">
+        <v>26.853000000000002</v>
+      </c>
+      <c r="N33">
+        <v>26.853000000000904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>54.57</v>
+      </c>
+      <c r="O34">
+        <v>11.771000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>70.52</v>
+      </c>
+      <c r="O35">
+        <v>10.584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>71.124000000000407</v>
+      </c>
+      <c r="M36">
+        <v>20.216999999999999</v>
+      </c>
+      <c r="N36">
+        <v>20.217000000000596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9.6892999999999994</v>
+      </c>
+      <c r="C37">
+        <v>9.6660260000000005</v>
+      </c>
+      <c r="E37">
+        <v>0.78</v>
+      </c>
+      <c r="L37">
+        <v>87.554999999999382</v>
+      </c>
+      <c r="M37">
+        <v>16.431000000000001</v>
+      </c>
+      <c r="N37">
+        <v>16.430999999998974</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>9.7161530000000003</v>
+      </c>
+      <c r="L38">
+        <v>93.32</v>
+      </c>
+      <c r="O38">
+        <v>19.353000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9.7363700000000009</v>
+      </c>
+      <c r="L39">
+        <v>104.94</v>
+      </c>
+      <c r="O39">
+        <v>11.433999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9.7528009999999998</v>
+      </c>
+      <c r="L40">
+        <v>110.39999999999961</v>
+      </c>
+      <c r="M40">
+        <v>22.844999999999999</v>
+      </c>
+      <c r="N40">
+        <v>22.845000000000226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9.7756460000000001</v>
+      </c>
+      <c r="L41">
+        <v>120.18</v>
+      </c>
+      <c r="O41">
+        <v>14.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9.7913999999999994</v>
+      </c>
+      <c r="L42">
+        <v>126.15399999999899</v>
+      </c>
+      <c r="M42">
+        <v>15.754</v>
+      </c>
+      <c r="N42">
+        <v>15.75399999999938</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9.8025730000000006</v>
+      </c>
+      <c r="L43">
+        <v>137.3270000000002</v>
+      </c>
+      <c r="M43">
+        <v>11.173</v>
+      </c>
+      <c r="N43">
+        <v>11.17300000000121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>312.87</v>
+      </c>
+      <c r="O44">
+        <v>12.414</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L31:O44">
+    <sortCondition ref="L31:L44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3048,207 +3603,589 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E856565-7D96-40AE-837F-A3F201ADCE6C}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>22.393999999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>22.394000000000027</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>15.539</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>15.53899999999997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>15.6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>15.600000000000058</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>18.68</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>18.94499999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>15.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>15.534999999999965</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>11.836</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>11.83600000000007</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
         <v>0.88302199999999997</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>D16-D15</f>
         <v>2.2394000000000025E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f>E15*1000</f>
         <v>22.394000000000027</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>0.905416</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" ref="E16:E20" si="0">D17-D16</f>
         <v>1.553899999999997E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" ref="F16:F20" si="1">E16*1000</f>
         <v>15.53899999999997</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>0.92095499999999997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>1.5600000000000058E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>15.600000000000058</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <v>0.93655500000000003</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>1.894499999999999E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>18.94499999999999</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>0.95550000000000002</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>1.5534999999999966E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>15.534999999999965</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>0.97103499999999998</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>1.1836000000000069E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
         <v>11.83600000000007</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
         <v>0.98287100000000005</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>22.393999999999998</v>
+      </c>
+      <c r="C29">
+        <f>(A42-A41)*1000</f>
+        <v>22.394000000000247</v>
+      </c>
+      <c r="D29">
+        <v>9.7262020000000007</v>
+      </c>
+      <c r="E29">
+        <f>(D29-C41)*1000+E41</f>
+        <v>60.95600000000023</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>15.539</v>
+      </c>
+      <c r="C30">
+        <f>(A43-A42)*1000</f>
+        <v>15.538999999998637</v>
+      </c>
+      <c r="D30">
+        <v>9.7417409999999993</v>
+      </c>
+      <c r="E30">
+        <f>(D30-C41)*1000+E41</f>
+        <v>76.494999999998868</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>53.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>15.6</v>
+      </c>
+      <c r="C31">
+        <f>(A44-A43)*1000</f>
+        <v>15.600000000000946</v>
+      </c>
+      <c r="D31">
+        <v>9.7573410000000003</v>
+      </c>
+      <c r="E31">
+        <f>(D31-C41)*1000+E41</f>
+        <v>92.094999999999814</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>56.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>18.68</v>
+      </c>
+      <c r="C32">
+        <f>(A45-A44)*1000</f>
+        <v>18.679999999999808</v>
+      </c>
+      <c r="D32">
+        <v>9.7760210000000001</v>
+      </c>
+      <c r="E32">
+        <f>(D32-C41)*1000+E41</f>
+        <v>110.77499999999962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>15.8</v>
+      </c>
+      <c r="C33">
+        <f>(A46-A45)*1000</f>
+        <v>15.80000000000048</v>
+      </c>
+      <c r="D33">
+        <v>9.7918210000000006</v>
+      </c>
+      <c r="E33">
+        <f>(D33-C41)*1000+E41</f>
+        <v>126.5750000000001</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>11.836</v>
+      </c>
+      <c r="C34">
+        <f>(A47-A46)*1000</f>
+        <v>11.835999999998847</v>
+      </c>
+      <c r="D34">
+        <v>9.8036569999999994</v>
+      </c>
+      <c r="E34">
+        <f>(D34-C41)*1000+E41</f>
+        <v>138.41099999999895</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" t="s">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>25.07</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>53.15</v>
+      </c>
+      <c r="O36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>56.14</v>
+      </c>
+      <c r="O37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>60.95600000000023</v>
+      </c>
+      <c r="M38">
+        <v>22.393999999999998</v>
+      </c>
+      <c r="N38">
+        <v>22.394000000000247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>76.494999999998868</v>
+      </c>
+      <c r="M39">
+        <v>15.539</v>
+      </c>
+      <c r="N39">
+        <v>15.538999999998637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40">
+        <v>92.094999999999814</v>
+      </c>
+      <c r="M40">
+        <v>15.6</v>
+      </c>
+      <c r="N40">
+        <v>15.600000000000946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9.7038080000000004</v>
+      </c>
+      <c r="C41">
+        <v>9.6660260000000005</v>
+      </c>
+      <c r="E41">
+        <v>0.78</v>
+      </c>
+      <c r="L41">
+        <v>110.77499999999962</v>
+      </c>
+      <c r="M41">
+        <v>18.68</v>
+      </c>
+      <c r="N41">
+        <v>18.679999999999808</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9.7262020000000007</v>
+      </c>
+      <c r="L42">
+        <v>126.5750000000001</v>
+      </c>
+      <c r="M42">
+        <v>15.8</v>
+      </c>
+      <c r="N42">
+        <v>15.80000000000048</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9.7417409999999993</v>
+      </c>
+      <c r="L43">
+        <v>138.41099999999895</v>
+      </c>
+      <c r="M43">
+        <v>11.836</v>
+      </c>
+      <c r="N43">
+        <v>11.835999999998847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>9.7573410000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9.7760210000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9.7918210000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>9.8036569999999994</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L35:O43">
+    <sortCondition ref="L35:L43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
